--- a/spec/Structures_SymuRes.xlsx
+++ b/spec/Structures_SymuRes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\symudev\Dropbox\Partage_Alicia_Cecile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\symures-dev-master\symures-dev\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoir" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1245,9 +1245,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1284,9 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1300,9 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1352,9 +1343,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1371,6 +1359,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1653,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1713,7 @@
       <c r="I1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="108" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1722,7 +1737,7 @@
       <c r="I2" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="120"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1742,7 +1757,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="89"/>
-      <c r="J3" s="111"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1762,7 +1777,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="68"/>
-      <c r="J4" s="110"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1782,7 +1797,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="89"/>
-      <c r="J5" s="111"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1802,7 +1817,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="68"/>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="109" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1824,7 +1839,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="89"/>
-      <c r="J7" s="111"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="1:11" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
@@ -1836,15 +1851,15 @@
       <c r="C8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="100" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="110"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
@@ -1853,10 +1868,10 @@
       <c r="B9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="101" t="s">
         <v>187</v>
       </c>
       <c r="E9" s="42"/>
@@ -1864,7 +1879,7 @@
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="90"/>
-      <c r="J9" s="127"/>
+      <c r="J9" s="124"/>
     </row>
     <row r="10" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -1884,7 +1899,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="71"/>
-      <c r="J10" s="126"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -1904,7 +1919,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="125" t="s">
+      <c r="J11" s="122" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1915,18 +1930,18 @@
       <c r="B12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="106" t="s">
         <v>188</v>
       </c>
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
       <c r="G12" s="97"/>
       <c r="H12" s="97"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="130" t="s">
+      <c r="I12" s="107"/>
+      <c r="J12" s="127" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1940,7 +1955,7 @@
       <c r="C13" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="101" t="s">
         <v>189</v>
       </c>
       <c r="E13" s="42"/>
@@ -1948,126 +1963,126 @@
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="90"/>
-      <c r="J13" s="122" t="s">
+      <c r="J13" s="120" t="s">
         <v>195</v>
       </c>
       <c r="K13" s="70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="157" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="152" t="s">
+    <row r="14" spans="1:11" s="153" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="153" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="152" t="s">
+      <c r="B14" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156" t="s">
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="157" t="s">
+      <c r="K14" s="153" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:11" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="112" t="s">
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="153" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:11" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="113" t="s">
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="148" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="112" t="s">
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="113" t="s">
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2089,203 +2104,203 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="91"/>
-      <c r="J19" s="112" t="s">
+      <c r="J19" s="111" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="162"/>
+      <c r="C20" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="113" t="s">
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="112" t="s">
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="113" t="s">
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="112" t="s">
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="113" t="s">
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="112" t="s">
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="113" t="s">
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+    <row r="27" spans="1:10" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="112" t="s">
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:10" s="153" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="157" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="123" t="s">
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="164" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2309,7 +2324,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="114"/>
+      <c r="J29" s="112"/>
     </row>
     <row r="30" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
@@ -2331,7 +2346,7 @@
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="63"/>
-      <c r="J30" s="115"/>
+      <c r="J30" s="113"/>
     </row>
     <row r="31" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
@@ -2351,7 +2366,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="114"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="32" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
@@ -2371,7 +2386,7 @@
       <c r="G32" s="31"/>
       <c r="H32" s="31"/>
       <c r="I32" s="63"/>
-      <c r="J32" s="115"/>
+      <c r="J32" s="113"/>
     </row>
     <row r="33" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -2391,7 +2406,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="114"/>
+      <c r="J33" s="112"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
@@ -2408,12 +2423,12 @@
         <v>190</v>
       </c>
       <c r="F34" s="31"/>
-      <c r="G34" s="150"/>
+      <c r="G34" s="147"/>
       <c r="H34" s="31" t="s">
         <v>191</v>
       </c>
       <c r="I34" s="63"/>
-      <c r="J34" s="115"/>
+      <c r="J34" s="113"/>
     </row>
     <row r="35" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
@@ -2437,7 +2452,7 @@
         <v>191</v>
       </c>
       <c r="I35" s="40"/>
-      <c r="J35" s="114"/>
+      <c r="J35" s="112"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
@@ -2459,7 +2474,7 @@
         <v>191</v>
       </c>
       <c r="I36" s="63"/>
-      <c r="J36" s="115"/>
+      <c r="J36" s="113"/>
     </row>
     <row r="37" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -2479,7 +2494,7 @@
         <v>191</v>
       </c>
       <c r="I37" s="40"/>
-      <c r="J37" s="114"/>
+      <c r="J37" s="112"/>
     </row>
     <row r="38" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
@@ -2499,7 +2514,7 @@
         <v>191</v>
       </c>
       <c r="I38" s="63"/>
-      <c r="J38" s="115"/>
+      <c r="J38" s="113"/>
     </row>
     <row r="39" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -2519,7 +2534,7 @@
         <v>191</v>
       </c>
       <c r="I39" s="40"/>
-      <c r="J39" s="114"/>
+      <c r="J39" s="112"/>
     </row>
     <row r="40" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
@@ -2537,7 +2552,7 @@
         <v>191</v>
       </c>
       <c r="I40" s="63"/>
-      <c r="J40" s="115"/>
+      <c r="J40" s="113"/>
     </row>
     <row r="41" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -2559,7 +2574,7 @@
         <v>191</v>
       </c>
       <c r="I41" s="40"/>
-      <c r="J41" s="114"/>
+      <c r="J41" s="112"/>
     </row>
     <row r="42" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
@@ -2581,7 +2596,7 @@
         <v>191</v>
       </c>
       <c r="I42" s="63"/>
-      <c r="J42" s="115"/>
+      <c r="J42" s="113"/>
     </row>
     <row r="43" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="26" t="s">
@@ -2601,7 +2616,7 @@
         <v>191</v>
       </c>
       <c r="I43" s="40"/>
-      <c r="J43" s="114"/>
+      <c r="J43" s="112"/>
     </row>
     <row r="44" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
@@ -2621,7 +2636,7 @@
         <v>191</v>
       </c>
       <c r="I44" s="63"/>
-      <c r="J44" s="115"/>
+      <c r="J44" s="113"/>
     </row>
     <row r="45" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -2641,7 +2656,7 @@
         <v>191</v>
       </c>
       <c r="I45" s="40"/>
-      <c r="J45" s="114"/>
+      <c r="J45" s="112"/>
     </row>
     <row r="46" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
@@ -2661,7 +2676,7 @@
         <v>191</v>
       </c>
       <c r="I46" s="63"/>
-      <c r="J46" s="115"/>
+      <c r="J46" s="113"/>
     </row>
     <row r="47" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -2681,7 +2696,7 @@
         <v>191</v>
       </c>
       <c r="I47" s="40"/>
-      <c r="J47" s="114"/>
+      <c r="J47" s="112"/>
     </row>
     <row r="48" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
@@ -2701,7 +2716,7 @@
         <v>191</v>
       </c>
       <c r="I48" s="63"/>
-      <c r="J48" s="115"/>
+      <c r="J48" s="113"/>
     </row>
     <row r="49" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -2721,7 +2736,7 @@
         <v>191</v>
       </c>
       <c r="I49" s="40"/>
-      <c r="J49" s="114"/>
+      <c r="J49" s="112"/>
     </row>
     <row r="50" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
@@ -2741,7 +2756,7 @@
         <v>191</v>
       </c>
       <c r="I50" s="63"/>
-      <c r="J50" s="115"/>
+      <c r="J50" s="113"/>
     </row>
     <row r="51" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -2761,7 +2776,7 @@
         <v>191</v>
       </c>
       <c r="I51" s="40"/>
-      <c r="J51" s="114"/>
+      <c r="J51" s="112"/>
     </row>
     <row r="52" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
@@ -2781,7 +2796,7 @@
         <v>191</v>
       </c>
       <c r="I52" s="63"/>
-      <c r="J52" s="115"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -2801,7 +2816,7 @@
         <v>191</v>
       </c>
       <c r="I53" s="40"/>
-      <c r="J53" s="114"/>
+      <c r="J53" s="112"/>
     </row>
     <row r="54" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
@@ -2821,7 +2836,7 @@
         <v>191</v>
       </c>
       <c r="I54" s="63"/>
-      <c r="J54" s="115"/>
+      <c r="J54" s="113"/>
     </row>
     <row r="55" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -2841,7 +2856,7 @@
         <v>191</v>
       </c>
       <c r="I55" s="40"/>
-      <c r="J55" s="114"/>
+      <c r="J55" s="112"/>
     </row>
     <row r="56" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
@@ -2861,7 +2876,7 @@
         <v>191</v>
       </c>
       <c r="I56" s="63"/>
-      <c r="J56" s="115"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
@@ -2881,7 +2896,7 @@
         <v>191</v>
       </c>
       <c r="I57" s="40"/>
-      <c r="J57" s="114"/>
+      <c r="J57" s="112"/>
     </row>
     <row r="58" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
@@ -2901,7 +2916,7 @@
         <v>191</v>
       </c>
       <c r="I58" s="63"/>
-      <c r="J58" s="115"/>
+      <c r="J58" s="113"/>
     </row>
     <row r="59" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -2921,7 +2936,7 @@
         <v>191</v>
       </c>
       <c r="I59" s="40"/>
-      <c r="J59" s="114"/>
+      <c r="J59" s="112"/>
     </row>
     <row r="60" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
@@ -2941,7 +2956,7 @@
         <v>191</v>
       </c>
       <c r="I60" s="63"/>
-      <c r="J60" s="115"/>
+      <c r="J60" s="113"/>
     </row>
     <row r="61" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -2961,7 +2976,7 @@
         <v>191</v>
       </c>
       <c r="I61" s="40"/>
-      <c r="J61" s="114"/>
+      <c r="J61" s="112"/>
     </row>
     <row r="62" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
@@ -2981,7 +2996,7 @@
         <v>191</v>
       </c>
       <c r="I62" s="63"/>
-      <c r="J62" s="115"/>
+      <c r="J62" s="113"/>
     </row>
     <row r="63" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
@@ -3001,7 +3016,7 @@
         <v>191</v>
       </c>
       <c r="I63" s="40"/>
-      <c r="J63" s="114"/>
+      <c r="J63" s="112"/>
     </row>
     <row r="64" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
@@ -3021,7 +3036,7 @@
         <v>191</v>
       </c>
       <c r="I64" s="63"/>
-      <c r="J64" s="115"/>
+      <c r="J64" s="113"/>
     </row>
     <row r="65" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
@@ -3041,7 +3056,7 @@
         <v>191</v>
       </c>
       <c r="I65" s="40"/>
-      <c r="J65" s="114"/>
+      <c r="J65" s="112"/>
     </row>
     <row r="66" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
@@ -3061,7 +3076,7 @@
         <v>191</v>
       </c>
       <c r="I66" s="63"/>
-      <c r="J66" s="115"/>
+      <c r="J66" s="113"/>
     </row>
     <row r="67" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -3081,7 +3096,7 @@
         <v>191</v>
       </c>
       <c r="I67" s="40"/>
-      <c r="J67" s="114"/>
+      <c r="J67" s="112"/>
     </row>
     <row r="68" spans="1:10" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
@@ -3101,7 +3116,7 @@
         <v>191</v>
       </c>
       <c r="I68" s="63"/>
-      <c r="J68" s="115"/>
+      <c r="J68" s="113"/>
     </row>
     <row r="69" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="83" t="s">
@@ -3127,7 +3142,7 @@
       <c r="I69" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="J69" s="124"/>
+      <c r="J69" s="121"/>
     </row>
     <row r="70" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
@@ -3149,7 +3164,7 @@
       <c r="I70" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J70" s="117" t="s">
+      <c r="J70" s="115" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3177,7 +3192,7 @@
       <c r="I71" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J71" s="116"/>
+      <c r="J71" s="114"/>
     </row>
     <row r="72" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
@@ -3203,7 +3218,7 @@
       <c r="I72" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J72" s="118"/>
+      <c r="J72" s="116"/>
     </row>
     <row r="73" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
@@ -3231,7 +3246,7 @@
       <c r="I73" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J73" s="116"/>
+      <c r="J73" s="114"/>
     </row>
     <row r="74" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
@@ -3255,7 +3270,7 @@
       <c r="I74" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J74" s="118"/>
+      <c r="J74" s="116"/>
     </row>
     <row r="75" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
@@ -3279,7 +3294,7 @@
       <c r="I75" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J75" s="116"/>
+      <c r="J75" s="114"/>
     </row>
     <row r="76" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
@@ -3303,7 +3318,7 @@
       <c r="I76" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J76" s="118"/>
+      <c r="J76" s="116"/>
     </row>
     <row r="77" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
@@ -3327,7 +3342,7 @@
       <c r="I77" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J77" s="116"/>
+      <c r="J77" s="114"/>
     </row>
     <row r="78" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -3353,7 +3368,7 @@
       <c r="I78" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J78" s="118"/>
+      <c r="J78" s="116"/>
     </row>
     <row r="79" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
@@ -3379,7 +3394,7 @@
       <c r="I79" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J79" s="116"/>
+      <c r="J79" s="114"/>
     </row>
     <row r="80" spans="1:10" s="86" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
@@ -3403,7 +3418,7 @@
       <c r="I80" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J80" s="118"/>
+      <c r="J80" s="116"/>
     </row>
     <row r="81" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
@@ -3425,7 +3440,7 @@
       <c r="I81" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J81" s="116" t="s">
+      <c r="J81" s="114" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3449,7 +3464,7 @@
       <c r="I82" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="J82" s="118" t="s">
+      <c r="J82" s="116" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3473,7 +3488,7 @@
       <c r="I83" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="J83" s="116" t="s">
+      <c r="J83" s="114" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3497,7 +3512,7 @@
       <c r="I84" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="J84" s="119" t="s">
+      <c r="J84" s="117" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3514,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,7 +3564,7 @@
       <c r="G1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="108" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3571,7 +3586,7 @@
       <c r="G2" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="120"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3589,7 +3604,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="89"/>
-      <c r="H3" s="111"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3607,7 +3622,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="110"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="1:8" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3625,7 +3640,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="89"/>
-      <c r="H5" s="111"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:8" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
@@ -3637,13 +3652,13 @@
       <c r="C6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="100" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="121"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="119"/>
     </row>
     <row r="7" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
@@ -3653,13 +3668,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="46"/>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="101" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="90"/>
-      <c r="H7" s="127"/>
+      <c r="H7" s="124"/>
     </row>
     <row r="8" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -3675,23 +3690,23 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="71"/>
-      <c r="H8" s="126"/>
-    </row>
-    <row r="9" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="H8" s="123"/>
+    </row>
+    <row r="9" spans="1:8" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="148"/>
+      <c r="D9" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="125"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="161"/>
     </row>
     <row r="10" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -3707,7 +3722,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="71"/>
-      <c r="H10" s="126"/>
+      <c r="H10" s="123"/>
     </row>
     <row r="11" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -3723,7 +3738,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="91"/>
-      <c r="H11" s="125"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -3741,7 +3756,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="71"/>
-      <c r="H12" s="126"/>
+      <c r="H12" s="123"/>
     </row>
     <row r="13" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
@@ -3757,7 +3772,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="91"/>
-      <c r="H13" s="125"/>
+      <c r="H13" s="122"/>
     </row>
     <row r="14" spans="1:8" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
@@ -3771,7 +3786,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="71"/>
-      <c r="H14" s="126"/>
+      <c r="H14" s="123"/>
     </row>
     <row r="15" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
@@ -3785,25 +3800,25 @@
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="91"/>
-      <c r="H15" s="125" t="s">
+      <c r="H15" s="122" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="72" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:8" s="153" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="107" t="s">
+      <c r="B16" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="130"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="159"/>
     </row>
     <row r="17" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -3813,15 +3828,15 @@
         <v>6</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="102" t="s">
         <v>111</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="128"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="125"/>
     </row>
     <row r="18" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
@@ -3837,7 +3852,7 @@
         <v>191</v>
       </c>
       <c r="G18" s="63"/>
-      <c r="H18" s="115"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -3853,7 +3868,7 @@
         <v>181</v>
       </c>
       <c r="G19" s="92"/>
-      <c r="H19" s="114"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
@@ -3869,7 +3884,7 @@
         <v>181</v>
       </c>
       <c r="G20" s="63"/>
-      <c r="H20" s="115"/>
+      <c r="H20" s="113"/>
     </row>
     <row r="21" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
@@ -3885,7 +3900,7 @@
         <v>181</v>
       </c>
       <c r="G21" s="92"/>
-      <c r="H21" s="114"/>
+      <c r="H21" s="112"/>
     </row>
     <row r="22" spans="1:8" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
@@ -3893,15 +3908,15 @@
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="99" t="s">
         <v>111</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="106"/>
-      <c r="H22" s="129"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="126"/>
     </row>
     <row r="23" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
@@ -3910,7 +3925,7 @@
       <c r="B23" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="98" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="95" t="s">
@@ -3925,7 +3940,7 @@
       <c r="G23" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="124"/>
+      <c r="H23" s="121"/>
     </row>
     <row r="24" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
@@ -3943,7 +3958,7 @@
       <c r="G24" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="118"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" spans="1:8" s="74" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
@@ -3955,13 +3970,13 @@
       <c r="C25" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="131"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="132"/>
+      <c r="H25" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4004,66 +4019,66 @@
       <c r="F1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="148" t="s">
+      <c r="G1" s="145" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="136" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="135"/>
+      <c r="E2" s="130" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="136"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:7" s="70" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="139" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="125"/>
+      <c r="E3" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="139"/>
+      <c r="G3" s="122"/>
     </row>
     <row r="4" spans="1:7" s="54" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="142" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="149"/>
+      <c r="E4" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="142"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:7" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83" t="s">
@@ -4082,7 +4097,7 @@
       <c r="F5" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="116"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -4103,7 +4118,7 @@
       <c r="F6" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="118"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -4122,7 +4137,7 @@
       <c r="F7" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="116"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -4141,7 +4156,7 @@
       <c r="F8" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="118"/>
+      <c r="G8" s="116"/>
     </row>
     <row r="9" spans="1:7" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -4160,7 +4175,7 @@
       <c r="F9" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="116"/>
+      <c r="G9" s="114"/>
     </row>
     <row r="10" spans="1:7" s="77" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -4179,7 +4194,7 @@
       <c r="F10" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="118"/>
+      <c r="G10" s="116"/>
     </row>
     <row r="11" spans="1:7" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -4198,7 +4213,7 @@
       <c r="F11" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="116"/>
+      <c r="G11" s="114"/>
     </row>
     <row r="12" spans="1:7" s="77" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
@@ -4219,7 +4234,7 @@
       <c r="F12" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="119"/>
+      <c r="G12" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/Structures_SymuRes.xlsx
+++ b/spec/Structures_SymuRes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reservoir" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="245">
   <si>
     <t>Variables</t>
   </si>
@@ -714,6 +714,54 @@
   </si>
   <si>
     <t>Total length of the route : sum of length in each reservoir</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Acc-Based</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>ID of the MacroNode</t>
+  </si>
+  <si>
+    <t>Type of the macroscopic node (5 choices).</t>
+  </si>
+  <si>
+    <t>ResID</t>
+  </si>
+  <si>
+    <t>int ou 2-size row vector</t>
+  </si>
+  <si>
+    <t>ID of the reservoir where the node belongs; or transfer from reservoirr1 ro reservoir r2 in case of a border node.</t>
+  </si>
+  <si>
+    <t>Capacity.Time</t>
+  </si>
+  <si>
+    <t>Times at wich the capacity changes [s]. The last time must be lesser or equal to the simulation time.</t>
+  </si>
+  <si>
+    <t>Capacity.Data</t>
+  </si>
+  <si>
+    <t>Same size as Time, values of the capacity [veh/s].</t>
+  </si>
+  <si>
+    <t>Coord</t>
+  </si>
+  <si>
+    <t>2-size row vector</t>
+  </si>
+  <si>
+    <t>Abscissa and ordinate of the node</t>
+  </si>
+  <si>
+    <t>capacity ?</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1385,6 +1433,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3529,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3987,9 +4065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4243,12 +4319,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="105.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="165" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="166" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="167" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="167"/>
+      <c r="F2" s="168"/>
+    </row>
+    <row r="3" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="172" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="169"/>
+    </row>
+    <row r="4" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="173" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="170"/>
+    </row>
+    <row r="5" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="172" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="169"/>
+    </row>
+    <row r="6" spans="1:6" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="173" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="170"/>
+    </row>
+    <row r="7" spans="1:6" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="174" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="103"/>
+    </row>
+    <row r="8" spans="1:6" s="55" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="175" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="176" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="176" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="178" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>